--- a/PAM/20000samples(50Iterations).xlsx
+++ b/PAM/20000samples(50Iterations).xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spancer\Documents\GitHub\DataMining_Project\PAM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26280" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="50IterationsFinal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Manhattan</t>
   </si>
@@ -59,6 +55,9 @@
   <si>
     <t xml:space="preserve"> Weighted Entropy</t>
   </si>
+  <si>
+    <t>Num Medoids</t>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -496,6 +495,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -541,9 +583,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -857,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,9 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,9 +942,11 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -922,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -942,7 +1009,7 @@
         <v>0.115666327</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1052,7 @@
         <v>0.104270899</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1007,7 +1074,7 @@
         <v>6.3331674000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1017,8 +1084,20 @@
       <c r="C8">
         <v>6.3598145999999994E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1107,20 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.87307018000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15200000000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.09E+21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1039,8 +1130,20 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.88433367299999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>14600000000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.24E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1050,8 +1153,20 @@
       <c r="C11">
         <v>4.4214964000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.89409005699999999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10500000000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7.67E+19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1061,8 +1176,20 @@
       <c r="C12">
         <v>3.0365904999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.89572910100000003</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5410000000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.17E+18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1073,7 +1200,21 @@
         <v>4.1085457999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1224,20 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.87537364243718396</v>
+      </c>
+      <c r="G15" s="8">
+        <v>35600025532.740402</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.8064195770481302E+22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1094,8 +1247,20 @@
       <c r="C16">
         <v>2.6611429999999999E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.89075752042463097</v>
+      </c>
+      <c r="G16" s="8">
+        <v>31103685516.738899</v>
+      </c>
+      <c r="H16" s="8">
+        <v>9.5677092308601694E+21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1105,8 +1270,20 @@
       <c r="C17">
         <v>1.6155142000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.894101903796645</v>
+      </c>
+      <c r="G17" s="8">
+        <v>24766701482.908901</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.2442445418398299E+21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1116,8 +1293,20 @@
       <c r="C18">
         <v>1.384064E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.896460210267774</v>
+      </c>
+      <c r="G18" s="8">
+        <v>20786832223.3367</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4.8238262709198101E+20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1128,7 +1317,7 @@
         <v>2.4024792E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1139,7 +1328,7 @@
         <v>1.357947E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1150,7 +1339,7 @@
         <v>7.6195159999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1161,7 +1350,7 @@
         <v>7.1689270000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1172,7 +1361,7 @@
         <v>3.3316889000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1194,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1205,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1216,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1227,7 +1416,7 @@
         <v>1.095148E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1238,7 +1427,7 @@
         <v>2.6902710999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1249,7 +1438,7 @@
         <v>2.6013249999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1361,5 +1550,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>